--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,67 +52,73 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>drop</t>
   </si>
   <si>
     <t>empty</t>
@@ -127,19 +133,37 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
@@ -148,145 +172,127 @@
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>care</t>
+    <t>please</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -655,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -787,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -887,16 +893,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.72</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.702054794520548</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6923076923076923</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1034,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,49 +1172,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12">
+        <v>0.828125</v>
+      </c>
+      <c r="L12">
+        <v>106</v>
+      </c>
+      <c r="M12">
+        <v>106</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>22</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L12">
-        <v>48</v>
-      </c>
-      <c r="M12">
-        <v>48</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8085106382978723</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,37 +1322,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4838709677419355</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>16</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,16 +1393,16 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4102564102564102</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3888888888888889</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,16 +1493,16 @@
         <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7619047619047619</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3866666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3783783783783784</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7169811320754716</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L20">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,16 +1643,16 @@
         <v>94</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.70625</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1658,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3488372093023256</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>336</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22">
         <v>0.6666666666666666</v>
@@ -1716,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3220338983050847</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1734,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3121693121693122</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1784,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2857142857142857</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.618798955613577</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2745098039215687</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1884,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2745098039215687</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1934,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1958,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,13 +1972,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2333333333333333</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1984,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.5558823529411765</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L28">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2008,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>151</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1587301587301587</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2034,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.5555555555555556</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
         <v>20</v>
@@ -2058,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2066,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1045576407506702</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2084,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2108,12 +2114,36 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>208</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K31">
         <v>0.550561797752809</v>
@@ -2138,17 +2168,41 @@
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.09919571045576407</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>336</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.55</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2160,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2186,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.5288135593220339</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L34">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2212,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>139</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.4811715481171548</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L35">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M35">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2238,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.4769230769230769</v>
+        <v>0.475</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2264,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.4520547945205479</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2290,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.4242424242424243</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2316,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.4186046511627907</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2342,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.4047619047619048</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2368,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.3974358974358974</v>
+        <v>0.421875</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2394,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.375</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2420,47 +2474,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.358974358974359</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.2978723404255319</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2472,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.2714285714285714</v>
+        <v>0.35</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2498,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.2131147540983606</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2529,10 +2583,10 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.1102362204724409</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L47">
         <v>14</v>
@@ -2550,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>113</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.1004784688995215</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2576,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.09615384615384616</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2602,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.06511627906976744</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2628,47 +2682,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>201</v>
+        <v>848</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.06487695749440715</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>836</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.05198776758409786</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2680,21 +2734,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>310</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.04439511653718091</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2706,21 +2760,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.03344867358708189</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2732,85 +2786,85 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>838</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.03240740740740741</v>
+        <v>0.0229293401965372</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>627</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.02525724976613658</v>
+        <v>0.01549586776859504</v>
       </c>
       <c r="L56">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2084</v>
+        <v>953</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.01257658819735569</v>
+        <v>0.01353965183752418</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N57">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="O57">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3062</v>
+        <v>3060</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,225 +52,231 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friend</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>join</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>clean</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
@@ -280,22 +286,28 @@
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>san</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -653,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -793,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.708904109589041</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C10">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.68</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,16 +1155,16 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8297872340425532</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.828125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5526315789473685</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1240,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.823943661971831</v>
+        <v>0.828125</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,37 +1284,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8170731707317073</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4358974358974359</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4193548387096774</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4054054054054054</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7727272727272727</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1514,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3846153846153846</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7647058823529411</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3733333333333334</v>
+        <v>0.36</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7264150943396226</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L20">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3691275167785235</v>
+        <v>0.3391472868217054</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1640,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>94</v>
+        <v>341</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.70625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3513513513513514</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1690,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3468992248062016</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C23">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1740,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.6595744680851063</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3137254901960784</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1790,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.6428571428571429</v>
+        <v>0.71875</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1822,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2962962962962963</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1840,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.64</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1872,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2727272727272727</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1890,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.6266318537859008</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L26">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1914,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1922,38 +1934,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2711864406779661</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>46</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L27">
         <v>16</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>43</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27">
-        <v>0.625</v>
-      </c>
-      <c r="L27">
-        <v>30</v>
-      </c>
-      <c r="M27">
-        <v>30</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1972,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2549019607843137</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1990,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.6111111111111112</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2014,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2022,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2203389830508475</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2040,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2064,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2072,13 +2084,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1777777777777778</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2090,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.5764705882352941</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2114,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2122,13 +2134,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1746031746031746</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2140,69 +2152,45 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.58</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K31">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L31">
-        <v>49</v>
-      </c>
-      <c r="M31">
-        <v>49</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C32">
-        <v>37</v>
-      </c>
-      <c r="D32">
-        <v>37</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>336</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K32">
-        <v>0.5416666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2214,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.5254237288135594</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L33">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,21 +2228,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.5111111111111111</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2266,21 +2254,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.4895397489539749</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L35">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2292,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.475</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2318,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.4657534246575342</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2344,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.4523809523809524</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2370,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.4307692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2396,21 +2384,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.4230769230769231</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2422,21 +2410,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.421875</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2448,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.4186046511627907</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2474,21 +2462,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.3829787234042553</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2500,21 +2488,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.3714285714285714</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2526,21 +2514,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.35</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2552,21 +2540,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.3142857142857143</v>
+        <v>0.425</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2578,21 +2566,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.2295081967213115</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2604,21 +2592,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.09330143540669857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2630,21 +2618,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>379</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.09134615384615384</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L49">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2656,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.05145413870246085</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="L50">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2682,47 +2670,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>848</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.04294478527607362</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>312</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.03846153846153846</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2734,21 +2722,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>625</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.03114186851211072</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2760,21 +2748,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.02996670366259711</v>
+        <v>0.05198776758409786</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2786,47 +2774,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>874</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.0229293401965372</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L55">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2088</v>
+        <v>861</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.01549586776859504</v>
+        <v>0.03538461538461538</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2838,33 +2826,163 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>953</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K57">
+        <v>0.03274087932647334</v>
+      </c>
+      <c r="L57">
+        <v>70</v>
+      </c>
+      <c r="M57">
+        <v>75</v>
+      </c>
+      <c r="N57">
+        <v>0.93</v>
+      </c>
+      <c r="O57">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K57">
-        <v>0.01353965183752418</v>
-      </c>
-      <c r="L57">
+      <c r="K58">
+        <v>0.02998846597462514</v>
+      </c>
+      <c r="L58">
+        <v>26</v>
+      </c>
+      <c r="M58">
+        <v>26</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59">
+        <v>0.02674897119341564</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60">
+        <v>0.01759834368530021</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>0.89</v>
+      </c>
+      <c r="O60">
+        <v>0.11</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61">
+        <v>0.01353528843055108</v>
+      </c>
+      <c r="L61">
         <v>42</v>
       </c>
-      <c r="M57">
-        <v>47</v>
-      </c>
-      <c r="N57">
-        <v>0.89</v>
-      </c>
-      <c r="O57">
-        <v>0.11</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3060</v>
+      <c r="M61">
+        <v>46</v>
+      </c>
+      <c r="N61">
+        <v>0.91</v>
+      </c>
+      <c r="O61">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K62">
+        <v>0.008142812402129659</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
+        <v>34</v>
+      </c>
+      <c r="N62">
+        <v>0.76</v>
+      </c>
+      <c r="O62">
+        <v>0.24</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3167</v>
       </c>
     </row>
   </sheetData>
